--- a/Output/Output Files/characterization.xlsx
+++ b/Output/Output Files/characterization.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13020" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (2)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (3)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (4)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (5)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (6)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (7)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Map (2)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Map (3)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Map (4)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Map (5)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Map (6)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Map (7)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="0">#REF!</definedName>
-    <definedName name="_2360" localSheetId="1">#REF!</definedName>
-    <definedName name="_2360" localSheetId="2">#REF!</definedName>
-    <definedName name="_2360" localSheetId="3">#REF!</definedName>
-    <definedName name="_2360" localSheetId="4">#REF!</definedName>
-    <definedName name="_2360" localSheetId="5">#REF!</definedName>
-    <definedName name="_2360" localSheetId="6">#REF!</definedName>
+    <definedName localSheetId="0" name="_2360">#REF!</definedName>
+    <definedName localSheetId="1" name="_2360">#REF!</definedName>
+    <definedName localSheetId="2" name="_2360">#REF!</definedName>
+    <definedName localSheetId="3" name="_2360">#REF!</definedName>
+    <definedName localSheetId="4" name="_2360">#REF!</definedName>
+    <definedName localSheetId="5" name="_2360">#REF!</definedName>
+    <definedName localSheetId="6" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602'!$1:$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602'!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map (2)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map (3)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Map (4)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Map (5)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Map (6)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Map (7)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602'!$1:$17</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602'!$A$1:$S$39</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map (2)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map (3)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'Map (4)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Area">'Map (5)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Area">'Map (6)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Area">'Map (7)'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -39,8 +39,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt formatCode=";;;" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1359,631 +1359,631 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="224">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="54" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="58" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="59" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="56" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="48" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="49" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="48" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="49" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="64" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="61" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="73" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="61" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="61" fillId="2" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="70" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="71" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="71" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="74" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="44" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="74" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="18" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="21" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="23" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="74" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="44" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="62" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="39" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="17" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="81" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="86" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="87" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="63" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="76" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="84" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="82" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="83" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="79" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="82" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="86" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="79" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="82" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2322,26 +2322,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="N10" sqref="N10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col width="3.44140625" customWidth="1" style="152" min="1" max="1"/>
-    <col width="10.44140625" customWidth="1" style="152" min="2" max="3"/>
-    <col width="18.33203125" customWidth="1" style="152" min="4" max="4"/>
-    <col width="5.33203125" customWidth="1" style="152" min="5" max="5"/>
-    <col width="2.5546875" customWidth="1" style="152" min="6" max="7"/>
-    <col width="5.33203125" customWidth="1" style="152" min="8" max="8"/>
-    <col width="7.44140625" customWidth="1" style="152" min="9" max="19"/>
-    <col width="9.109375" customWidth="1" style="152" min="20" max="21"/>
-    <col width="9.109375" customWidth="1" style="152" min="22" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="152" width="3.44140625"/>
+    <col customWidth="1" max="3" min="2" style="152" width="10.44140625"/>
+    <col customWidth="1" max="4" min="4" style="152" width="18.33203125"/>
+    <col customWidth="1" max="5" min="5" style="152" width="5.33203125"/>
+    <col customWidth="1" max="7" min="6" style="152" width="2.5546875"/>
+    <col customWidth="1" max="8" min="8" style="152" width="5.33203125"/>
+    <col customWidth="1" max="19" min="9" style="152" width="7.44140625"/>
+    <col customWidth="1" max="21" min="20" style="152" width="9.109375"/>
+    <col customWidth="1" max="16384" min="22" style="152" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="39" r="1" thickBot="1">
       <c r="A1" s="199" t="n"/>
       <c r="B1" s="200" t="n"/>
       <c r="C1" s="200" t="n"/>
@@ -2362,7 +2362,7 @@
       <c r="R1" s="200" t="n"/>
       <c r="S1" s="200" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="13.5" r="2" thickTop="1">
       <c r="A2" s="13" t="n"/>
       <c r="B2" s="14" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
       <c r="R2" s="204" t="n"/>
       <c r="S2" s="202" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="3">
       <c r="A3" s="15" t="n"/>
       <c r="B3" s="16" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
       <c r="R3" s="208" t="n"/>
       <c r="S3" s="213" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="13.5" r="4" thickBot="1">
       <c r="A4" s="17" t="n"/>
       <c r="B4" s="18" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
       <c r="R4" s="200" t="n"/>
       <c r="S4" s="215" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="13.5" r="5" thickTop="1">
       <c r="A5" s="19" t="n"/>
       <c r="B5" s="18" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="6">
       <c r="A6" s="31" t="n"/>
       <c r="B6" s="32" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="7">
       <c r="A7" s="45" t="n"/>
       <c r="B7" s="18" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="13.5" r="8" thickBot="1">
       <c r="A8" s="50" t="n"/>
       <c r="B8" s="18" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="13.5" r="9" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -2730,7 +2730,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -2775,7 +2775,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -2820,7 +2820,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -2911,7 +2911,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -2951,7 +2951,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -2995,7 +2995,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="13.5" r="16" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -3037,7 +3037,7 @@
       <c r="S16" s="163" t="n"/>
       <c r="V16" s="30" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="17" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3110,7 +3110,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="80" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="80" thickTop="1">
       <c r="A18" s="98" t="n">
         <v>1</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="80">
       <c r="A19" s="102" t="n">
         <v>2</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="80">
       <c r="A20" s="98" t="n">
         <v>3</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="80">
       <c r="A21" s="102" t="n">
         <v>4</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="80">
       <c r="A22" s="98" t="n">
         <v>5</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="80">
       <c r="A23" s="102" t="n">
         <v>6</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="80">
       <c r="A24" s="98" t="n">
         <v>7</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="80">
       <c r="A25" s="102" t="n">
         <v>8</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="80">
       <c r="A26" s="98" t="n">
         <v>9</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="80">
       <c r="A27" s="102" t="n">
         <v>10</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="80">
       <c r="A28" s="98" t="n">
         <v>11</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="80">
       <c r="A29" s="102" t="n">
         <v>12</v>
       </c>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="80">
       <c r="A30" s="98" t="n">
         <v>13</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="80">
       <c r="A31" s="102" t="n">
         <v>14</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="80">
       <c r="A32" s="98" t="n">
         <v>15</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="80">
       <c r="A33" s="102" t="n"/>
       <c r="B33" s="148" t="n"/>
       <c r="C33" s="149" t="n"/>
@@ -3871,7 +3871,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="80">
       <c r="A34" s="98" t="n"/>
       <c r="B34" s="148" t="n"/>
       <c r="C34" s="149" t="n"/>
@@ -3904,7 +3904,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="80">
       <c r="A35" s="102" t="n"/>
       <c r="B35" s="148" t="n"/>
       <c r="C35" s="149" t="n"/>
@@ -3937,7 +3937,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="80">
+    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="80">
       <c r="A36" s="98" t="n"/>
       <c r="B36" s="148" t="n"/>
       <c r="C36" s="149" t="n"/>
@@ -3970,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="80" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="80" thickBot="1">
       <c r="A37" s="106" t="n"/>
       <c r="B37" s="153" t="n"/>
       <c r="C37" s="154" t="n"/>
@@ -4003,7 +4003,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="15.75" r="38" thickTop="1">
       <c r="A38" s="84" t="n"/>
       <c r="B38" s="84" t="n"/>
       <c r="C38" s="85" t="n"/>
@@ -4063,7 +4063,7 @@
       <c r="BB38" s="90" t="n"/>
       <c r="BC38" s="90" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="39">
       <c r="A39" s="156" t="inlineStr">
         <is>
           <t>Reviewed by:______________________  Date:_______________</t>
@@ -4107,16 +4107,6 @@
       <c r="BB39" s="90" t="n"/>
       <c r="BC39" s="90" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="78">
     <mergeCell ref="A1:S1"/>
@@ -4199,8 +4189,8 @@
     <mergeCell ref="B33:H33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
 </worksheet>
 </file>
 
@@ -4212,21 +4202,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="K38" sqref="K38:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="113" min="1" max="65"/>
-    <col width="1.88671875" customWidth="1" style="113" min="66" max="66"/>
-    <col hidden="1" width="0.33203125" customWidth="1" style="113" min="67" max="67"/>
-    <col hidden="1" width="1.6640625" customWidth="1" style="113" min="68" max="76"/>
-    <col width="1.6640625" customWidth="1" style="113" min="77" max="78"/>
-    <col width="1.6640625" customWidth="1" style="113" min="79" max="16384"/>
+    <col customWidth="1" max="65" min="1" style="113" width="1.6640625"/>
+    <col customWidth="1" max="66" min="66" style="113" width="1.88671875"/>
+    <col customWidth="1" hidden="1" max="67" min="67" style="113" width="0.33203125"/>
+    <col customWidth="1" hidden="1" max="76" min="68" style="113" width="1.6640625"/>
+    <col customWidth="1" max="78" min="77" style="113" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="79" style="113" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="218" t="n"/>
       <c r="B1" s="200" t="n"/>
       <c r="C1" s="200" t="n"/>
@@ -4305,7 +4295,7 @@
       <c r="BX1" s="200" t="n"/>
       <c r="BY1" s="200" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="114" t="n"/>
       <c r="B2" s="115" t="n"/>
       <c r="C2" s="115" t="n"/>
@@ -4384,7 +4374,7 @@
       <c r="BX2" s="115" t="n"/>
       <c r="BY2" s="116" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="117" t="n"/>
       <c r="B3" s="118" t="n"/>
       <c r="C3" s="119" t="n"/>
@@ -4463,7 +4453,7 @@
       <c r="BX3" s="119" t="n"/>
       <c r="BY3" s="120" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="117" t="n"/>
       <c r="B4" s="119" t="n"/>
       <c r="C4" s="119" t="n"/>
@@ -4542,7 +4532,7 @@
       <c r="BX4" s="119" t="n"/>
       <c r="BY4" s="120" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="121" t="n"/>
       <c r="AW5" s="122" t="n"/>
       <c r="AX5" s="122" t="n"/>
@@ -4560,7 +4550,7 @@
       <c r="BJ5" s="122" t="n"/>
       <c r="BY5" s="123" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="121" t="n"/>
       <c r="AW6" s="122" t="n"/>
       <c r="AX6" s="122" t="n"/>
@@ -4578,7 +4568,7 @@
       <c r="BJ6" s="122" t="n"/>
       <c r="BY6" s="123" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="121" t="n"/>
       <c r="V7" s="122" t="n"/>
       <c r="W7" s="122" t="n"/>
@@ -4612,7 +4602,7 @@
       <c r="BJ7" s="124" t="n"/>
       <c r="BY7" s="123" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="121" t="n"/>
       <c r="V8" s="122" t="n"/>
       <c r="W8" s="122" t="n"/>
@@ -4646,7 +4636,7 @@
       <c r="BJ8" s="124" t="n"/>
       <c r="BY8" s="123" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="121" t="n"/>
       <c r="V9" s="124" t="n"/>
       <c r="W9" s="124" t="n"/>
@@ -4666,7 +4656,7 @@
       <c r="AK9" s="124" t="n"/>
       <c r="BY9" s="123" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="121" t="n"/>
       <c r="V10" s="124" t="n"/>
       <c r="W10" s="124" t="n"/>
@@ -4686,7 +4676,7 @@
       <c r="AK10" s="124" t="n"/>
       <c r="BY10" s="123" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="121" t="n"/>
       <c r="V11" s="124" t="n"/>
       <c r="W11" s="124" t="n"/>
@@ -4706,19 +4696,19 @@
       <c r="AK11" s="124" t="n"/>
       <c r="BY11" s="123" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="121" t="n"/>
       <c r="BY12" s="123" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="121" t="n"/>
       <c r="BY13" s="123" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="121" t="n"/>
       <c r="BY14" s="123" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="121" t="n"/>
       <c r="BY15" s="123" t="n"/>
       <c r="CP15" s="125" t="n"/>
@@ -4741,7 +4731,7 @@
       <c r="DG15" s="125" t="n"/>
       <c r="DH15" s="125" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="121" t="n"/>
       <c r="BY16" s="123" t="n"/>
       <c r="CP16" s="125" t="n"/>
@@ -4764,7 +4754,7 @@
       <c r="DG16" s="125" t="n"/>
       <c r="DH16" s="125" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="121" t="n"/>
       <c r="BY17" s="123" t="n"/>
       <c r="CP17" s="125" t="n"/>
@@ -4787,7 +4777,7 @@
       <c r="DG17" s="125" t="n"/>
       <c r="DH17" s="125" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="121" t="n"/>
       <c r="BY18" s="123" t="n"/>
       <c r="CP18" s="125" t="n"/>
@@ -4810,7 +4800,7 @@
       <c r="DG18" s="125" t="n"/>
       <c r="DH18" s="125" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="121" t="n"/>
       <c r="BY19" s="123" t="n"/>
       <c r="CP19" s="125" t="n"/>
@@ -4833,7 +4823,7 @@
       <c r="DG19" s="125" t="n"/>
       <c r="DH19" s="125" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="121" t="n"/>
       <c r="BY20" s="123" t="n"/>
       <c r="CP20" s="125" t="n"/>
@@ -4856,7 +4846,7 @@
       <c r="DG20" s="125" t="n"/>
       <c r="DH20" s="125" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="121" t="n"/>
       <c r="BY21" s="123" t="n"/>
       <c r="CP21" s="125" t="n"/>
@@ -4879,7 +4869,7 @@
       <c r="DG21" s="125" t="n"/>
       <c r="DH21" s="125" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="121" t="n"/>
       <c r="BY22" s="123" t="n"/>
       <c r="CP22" s="125" t="n"/>
@@ -4902,7 +4892,7 @@
       <c r="DG22" s="125" t="n"/>
       <c r="DH22" s="125" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="121" t="n"/>
       <c r="AL23" s="122" t="n"/>
       <c r="AM23" s="122" t="n"/>
@@ -4935,7 +4925,7 @@
       <c r="DG23" s="125" t="n"/>
       <c r="DH23" s="125" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="121" t="n"/>
       <c r="J24" s="122" t="n"/>
       <c r="K24" s="122" t="n"/>
@@ -4963,7 +4953,7 @@
       <c r="AU24" s="122" t="n"/>
       <c r="BY24" s="123" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="121" t="n"/>
       <c r="J25" s="122" t="n"/>
       <c r="K25" s="122" t="n"/>
@@ -4991,7 +4981,7 @@
       <c r="AU25" s="124" t="n"/>
       <c r="BY25" s="123" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="121" t="n"/>
       <c r="BC26" s="122" t="n"/>
       <c r="BD26" s="122" t="n"/>
@@ -5009,7 +4999,7 @@
       <c r="BP26" s="122" t="n"/>
       <c r="BY26" s="123" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="121" t="n"/>
       <c r="B27" s="125" t="n"/>
       <c r="C27" s="125" t="n"/>
@@ -5051,7 +5041,7 @@
       <c r="BP27" s="122" t="n"/>
       <c r="BY27" s="123" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="121" t="n"/>
       <c r="B28" s="125" t="n"/>
       <c r="C28" s="125" t="n"/>
@@ -5093,7 +5083,7 @@
       <c r="BP28" s="122" t="n"/>
       <c r="BY28" s="123" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="121" t="n"/>
       <c r="B29" s="125" t="n"/>
       <c r="C29" s="125" t="n"/>
@@ -5135,7 +5125,7 @@
       <c r="BP29" s="122" t="n"/>
       <c r="BY29" s="123" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="121" t="n"/>
       <c r="B30" s="125" t="n"/>
       <c r="C30" s="125" t="n"/>
@@ -5177,7 +5167,7 @@
       <c r="BP30" s="124" t="n"/>
       <c r="BY30" s="123" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="121" t="n"/>
       <c r="B31" s="125" t="n"/>
       <c r="C31" s="125" t="n"/>
@@ -5219,7 +5209,7 @@
       <c r="BP31" s="124" t="n"/>
       <c r="BY31" s="123" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="121" t="n"/>
       <c r="B32" s="125" t="n"/>
       <c r="C32" s="125" t="n"/>
@@ -5247,7 +5237,7 @@
       <c r="Y32" s="127" t="n"/>
       <c r="BY32" s="123" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="121" t="n"/>
       <c r="B33" s="125" t="n"/>
       <c r="C33" s="125" t="n"/>
@@ -5308,7 +5298,7 @@
       <c r="BS33" s="129" t="n"/>
       <c r="BY33" s="123" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="121" t="n"/>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
@@ -5369,7 +5359,7 @@
       <c r="BS34" s="129" t="n"/>
       <c r="BY34" s="123" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="121" t="n"/>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
@@ -5396,7 +5386,7 @@
       <c r="X35" s="125" t="n"/>
       <c r="BY35" s="123" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="121" t="n"/>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
@@ -5423,7 +5413,7 @@
       <c r="X36" s="125" t="n"/>
       <c r="BY36" s="123" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="131" t="n"/>
       <c r="B37" s="132" t="n"/>
       <c r="C37" s="132" t="n"/>
@@ -5502,7 +5492,7 @@
       <c r="BX37" s="132" t="n"/>
       <c r="BY37" s="133" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="219" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -5589,7 +5579,7 @@
       <c r="BX38" s="134" t="n"/>
       <c r="BY38" s="137" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="216" t="inlineStr">
         <is>
           <t>Date</t>
@@ -5648,7 +5638,7 @@
       <c r="BX39" s="138" t="n"/>
       <c r="BY39" s="139" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="216" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -5709,7 +5699,7 @@
       <c r="BX40" s="138" t="n"/>
       <c r="BY40" s="139" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="216" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -5770,7 +5760,7 @@
       <c r="BX41" s="138" t="n"/>
       <c r="BY41" s="139" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="216" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -5829,7 +5819,7 @@
       <c r="BX42" s="142" t="n"/>
       <c r="BY42" s="139" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="216" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -5890,7 +5880,7 @@
       <c r="BX43" s="142" t="n"/>
       <c r="BY43" s="139" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="216" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -5951,7 +5941,7 @@
       <c r="BX44" s="138" t="n"/>
       <c r="BY44" s="139" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="222" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -6034,15 +6024,15 @@
       <c r="BX45" s="144" t="n"/>
       <c r="BY45" s="145" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="146" t="n"/>
       <c r="B51" s="125" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="146" t="n"/>
       <c r="B52" s="125" t="n"/>
     </row>
@@ -6067,8 +6057,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -6080,21 +6070,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="K38" sqref="K38:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="113" min="1" max="65"/>
-    <col width="1.5546875" customWidth="1" style="113" min="66" max="66"/>
-    <col hidden="1" width="1.6640625" customWidth="1" style="113" min="67" max="75"/>
-    <col width="0.44140625" customWidth="1" style="113" min="76" max="76"/>
-    <col width="1.6640625" customWidth="1" style="113" min="77" max="78"/>
-    <col width="1.6640625" customWidth="1" style="113" min="79" max="16384"/>
+    <col customWidth="1" max="65" min="1" style="113" width="1.6640625"/>
+    <col customWidth="1" max="66" min="66" style="113" width="1.5546875"/>
+    <col customWidth="1" hidden="1" max="75" min="67" style="113" width="1.6640625"/>
+    <col customWidth="1" max="76" min="76" style="113" width="0.44140625"/>
+    <col customWidth="1" max="78" min="77" style="113" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="79" style="113" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="218" t="n"/>
       <c r="B1" s="200" t="n"/>
       <c r="C1" s="200" t="n"/>
@@ -6173,7 +6163,7 @@
       <c r="BX1" s="200" t="n"/>
       <c r="BY1" s="200" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="114" t="n"/>
       <c r="B2" s="115" t="n"/>
       <c r="C2" s="115" t="n"/>
@@ -6252,7 +6242,7 @@
       <c r="BX2" s="115" t="n"/>
       <c r="BY2" s="116" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="117" t="n"/>
       <c r="B3" s="118" t="n"/>
       <c r="C3" s="119" t="n"/>
@@ -6331,7 +6321,7 @@
       <c r="BX3" s="119" t="n"/>
       <c r="BY3" s="120" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="117" t="n"/>
       <c r="B4" s="119" t="n"/>
       <c r="C4" s="119" t="n"/>
@@ -6410,7 +6400,7 @@
       <c r="BX4" s="119" t="n"/>
       <c r="BY4" s="120" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="121" t="n"/>
       <c r="AW5" s="122" t="n"/>
       <c r="AX5" s="122" t="n"/>
@@ -6428,7 +6418,7 @@
       <c r="BJ5" s="122" t="n"/>
       <c r="BY5" s="123" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="121" t="n"/>
       <c r="AW6" s="122" t="n"/>
       <c r="AX6" s="122" t="n"/>
@@ -6446,7 +6436,7 @@
       <c r="BJ6" s="122" t="n"/>
       <c r="BY6" s="123" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="121" t="n"/>
       <c r="V7" s="122" t="n"/>
       <c r="W7" s="122" t="n"/>
@@ -6480,7 +6470,7 @@
       <c r="BJ7" s="124" t="n"/>
       <c r="BY7" s="123" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="121" t="n"/>
       <c r="V8" s="122" t="n"/>
       <c r="W8" s="122" t="n"/>
@@ -6514,7 +6504,7 @@
       <c r="BJ8" s="124" t="n"/>
       <c r="BY8" s="123" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="121" t="n"/>
       <c r="V9" s="124" t="n"/>
       <c r="W9" s="124" t="n"/>
@@ -6534,7 +6524,7 @@
       <c r="AK9" s="124" t="n"/>
       <c r="BY9" s="123" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="121" t="n"/>
       <c r="V10" s="124" t="n"/>
       <c r="W10" s="124" t="n"/>
@@ -6554,7 +6544,7 @@
       <c r="AK10" s="124" t="n"/>
       <c r="BY10" s="123" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="121" t="n"/>
       <c r="V11" s="124" t="n"/>
       <c r="W11" s="124" t="n"/>
@@ -6574,19 +6564,19 @@
       <c r="AK11" s="124" t="n"/>
       <c r="BY11" s="123" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="121" t="n"/>
       <c r="BY12" s="123" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="121" t="n"/>
       <c r="BY13" s="123" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="121" t="n"/>
       <c r="BY14" s="123" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="121" t="n"/>
       <c r="BY15" s="123" t="n"/>
       <c r="CP15" s="125" t="n"/>
@@ -6609,7 +6599,7 @@
       <c r="DG15" s="125" t="n"/>
       <c r="DH15" s="125" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="121" t="n"/>
       <c r="BY16" s="123" t="n"/>
       <c r="CP16" s="125" t="n"/>
@@ -6632,7 +6622,7 @@
       <c r="DG16" s="125" t="n"/>
       <c r="DH16" s="125" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="121" t="n"/>
       <c r="BY17" s="123" t="n"/>
       <c r="CP17" s="125" t="n"/>
@@ -6655,7 +6645,7 @@
       <c r="DG17" s="125" t="n"/>
       <c r="DH17" s="125" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="121" t="n"/>
       <c r="BY18" s="123" t="n"/>
       <c r="CP18" s="125" t="n"/>
@@ -6678,7 +6668,7 @@
       <c r="DG18" s="125" t="n"/>
       <c r="DH18" s="125" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="121" t="n"/>
       <c r="BY19" s="123" t="n"/>
       <c r="CP19" s="125" t="n"/>
@@ -6701,7 +6691,7 @@
       <c r="DG19" s="125" t="n"/>
       <c r="DH19" s="125" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="121" t="n"/>
       <c r="BY20" s="123" t="n"/>
       <c r="CP20" s="125" t="n"/>
@@ -6724,7 +6714,7 @@
       <c r="DG20" s="125" t="n"/>
       <c r="DH20" s="125" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="121" t="n"/>
       <c r="BY21" s="123" t="n"/>
       <c r="CP21" s="125" t="n"/>
@@ -6747,7 +6737,7 @@
       <c r="DG21" s="125" t="n"/>
       <c r="DH21" s="125" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="121" t="n"/>
       <c r="BY22" s="123" t="n"/>
       <c r="CP22" s="125" t="n"/>
@@ -6770,7 +6760,7 @@
       <c r="DG22" s="125" t="n"/>
       <c r="DH22" s="125" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="121" t="n"/>
       <c r="AL23" s="122" t="n"/>
       <c r="AM23" s="122" t="n"/>
@@ -6803,7 +6793,7 @@
       <c r="DG23" s="125" t="n"/>
       <c r="DH23" s="125" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="121" t="n"/>
       <c r="J24" s="122" t="n"/>
       <c r="K24" s="122" t="n"/>
@@ -6831,7 +6821,7 @@
       <c r="AU24" s="122" t="n"/>
       <c r="BY24" s="123" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="121" t="n"/>
       <c r="J25" s="122" t="n"/>
       <c r="K25" s="122" t="n"/>
@@ -6859,7 +6849,7 @@
       <c r="AU25" s="124" t="n"/>
       <c r="BY25" s="123" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="121" t="n"/>
       <c r="BC26" s="122" t="n"/>
       <c r="BD26" s="122" t="n"/>
@@ -6877,7 +6867,7 @@
       <c r="BP26" s="122" t="n"/>
       <c r="BY26" s="123" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="121" t="n"/>
       <c r="B27" s="125" t="n"/>
       <c r="C27" s="125" t="n"/>
@@ -6919,7 +6909,7 @@
       <c r="BP27" s="122" t="n"/>
       <c r="BY27" s="123" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="121" t="n"/>
       <c r="B28" s="125" t="n"/>
       <c r="C28" s="125" t="n"/>
@@ -6961,7 +6951,7 @@
       <c r="BP28" s="122" t="n"/>
       <c r="BY28" s="123" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="121" t="n"/>
       <c r="B29" s="125" t="n"/>
       <c r="C29" s="125" t="n"/>
@@ -7003,7 +6993,7 @@
       <c r="BP29" s="122" t="n"/>
       <c r="BY29" s="123" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="121" t="n"/>
       <c r="B30" s="125" t="n"/>
       <c r="C30" s="125" t="n"/>
@@ -7045,7 +7035,7 @@
       <c r="BP30" s="124" t="n"/>
       <c r="BY30" s="123" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="121" t="n"/>
       <c r="B31" s="125" t="n"/>
       <c r="C31" s="125" t="n"/>
@@ -7087,7 +7077,7 @@
       <c r="BP31" s="124" t="n"/>
       <c r="BY31" s="123" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="121" t="n"/>
       <c r="B32" s="125" t="n"/>
       <c r="C32" s="125" t="n"/>
@@ -7115,7 +7105,7 @@
       <c r="Y32" s="127" t="n"/>
       <c r="BY32" s="123" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="121" t="n"/>
       <c r="B33" s="125" t="n"/>
       <c r="C33" s="125" t="n"/>
@@ -7176,7 +7166,7 @@
       <c r="BS33" s="129" t="n"/>
       <c r="BY33" s="123" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="121" t="n"/>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
@@ -7237,7 +7227,7 @@
       <c r="BS34" s="129" t="n"/>
       <c r="BY34" s="123" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="121" t="n"/>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
@@ -7264,7 +7254,7 @@
       <c r="X35" s="125" t="n"/>
       <c r="BY35" s="123" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="121" t="n"/>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
@@ -7291,7 +7281,7 @@
       <c r="X36" s="125" t="n"/>
       <c r="BY36" s="123" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="131" t="n"/>
       <c r="B37" s="132" t="n"/>
       <c r="C37" s="132" t="n"/>
@@ -7370,7 +7360,7 @@
       <c r="BX37" s="132" t="n"/>
       <c r="BY37" s="133" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="219" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -7457,7 +7447,7 @@
       <c r="BX38" s="134" t="n"/>
       <c r="BY38" s="137" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="216" t="inlineStr">
         <is>
           <t>Date</t>
@@ -7516,7 +7506,7 @@
       <c r="BX39" s="138" t="n"/>
       <c r="BY39" s="139" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="216" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -7577,7 +7567,7 @@
       <c r="BX40" s="138" t="n"/>
       <c r="BY40" s="139" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="216" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -7638,7 +7628,7 @@
       <c r="BX41" s="138" t="n"/>
       <c r="BY41" s="139" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="216" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -7697,7 +7687,7 @@
       <c r="BX42" s="142" t="n"/>
       <c r="BY42" s="139" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="216" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -7758,7 +7748,7 @@
       <c r="BX43" s="142" t="n"/>
       <c r="BY43" s="139" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="216" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -7819,7 +7809,7 @@
       <c r="BX44" s="138" t="n"/>
       <c r="BY44" s="139" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="222" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -7902,15 +7892,15 @@
       <c r="BX45" s="144" t="n"/>
       <c r="BY45" s="145" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="146" t="n"/>
       <c r="B51" s="125" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="146" t="n"/>
       <c r="B52" s="125" t="n"/>
     </row>
@@ -7935,8 +7925,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -7948,20 +7938,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="K38" sqref="K38:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="113" min="1" max="66"/>
-    <col width="0.109375" customWidth="1" style="113" min="67" max="67"/>
-    <col hidden="1" width="1.6640625" customWidth="1" style="113" min="68" max="76"/>
-    <col width="1.6640625" customWidth="1" style="113" min="77" max="78"/>
-    <col width="1.6640625" customWidth="1" style="113" min="79" max="16384"/>
+    <col customWidth="1" max="66" min="1" style="113" width="1.6640625"/>
+    <col customWidth="1" max="67" min="67" style="113" width="0.109375"/>
+    <col customWidth="1" hidden="1" max="76" min="68" style="113" width="1.6640625"/>
+    <col customWidth="1" max="78" min="77" style="113" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="79" style="113" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="218" t="n"/>
       <c r="B1" s="200" t="n"/>
       <c r="C1" s="200" t="n"/>
@@ -8040,7 +8030,7 @@
       <c r="BX1" s="200" t="n"/>
       <c r="BY1" s="200" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="114" t="n"/>
       <c r="B2" s="115" t="n"/>
       <c r="C2" s="115" t="n"/>
@@ -8119,7 +8109,7 @@
       <c r="BX2" s="115" t="n"/>
       <c r="BY2" s="116" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="117" t="n"/>
       <c r="B3" s="118" t="n"/>
       <c r="C3" s="119" t="n"/>
@@ -8198,7 +8188,7 @@
       <c r="BX3" s="119" t="n"/>
       <c r="BY3" s="120" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="117" t="n"/>
       <c r="B4" s="119" t="n"/>
       <c r="C4" s="119" t="n"/>
@@ -8277,7 +8267,7 @@
       <c r="BX4" s="119" t="n"/>
       <c r="BY4" s="120" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="121" t="n"/>
       <c r="AW5" s="122" t="n"/>
       <c r="AX5" s="122" t="n"/>
@@ -8295,7 +8285,7 @@
       <c r="BJ5" s="122" t="n"/>
       <c r="BY5" s="123" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="121" t="n"/>
       <c r="AW6" s="122" t="n"/>
       <c r="AX6" s="122" t="n"/>
@@ -8313,7 +8303,7 @@
       <c r="BJ6" s="122" t="n"/>
       <c r="BY6" s="123" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="121" t="n"/>
       <c r="V7" s="122" t="n"/>
       <c r="W7" s="122" t="n"/>
@@ -8347,7 +8337,7 @@
       <c r="BJ7" s="124" t="n"/>
       <c r="BY7" s="123" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="121" t="n"/>
       <c r="V8" s="122" t="n"/>
       <c r="W8" s="122" t="n"/>
@@ -8381,7 +8371,7 @@
       <c r="BJ8" s="124" t="n"/>
       <c r="BY8" s="123" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="121" t="n"/>
       <c r="V9" s="124" t="n"/>
       <c r="W9" s="124" t="n"/>
@@ -8401,7 +8391,7 @@
       <c r="AK9" s="124" t="n"/>
       <c r="BY9" s="123" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="121" t="n"/>
       <c r="V10" s="124" t="n"/>
       <c r="W10" s="124" t="n"/>
@@ -8421,7 +8411,7 @@
       <c r="AK10" s="124" t="n"/>
       <c r="BY10" s="123" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="121" t="n"/>
       <c r="V11" s="124" t="n"/>
       <c r="W11" s="124" t="n"/>
@@ -8441,19 +8431,19 @@
       <c r="AK11" s="124" t="n"/>
       <c r="BY11" s="123" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="121" t="n"/>
       <c r="BY12" s="123" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="121" t="n"/>
       <c r="BY13" s="123" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="121" t="n"/>
       <c r="BY14" s="123" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="121" t="n"/>
       <c r="BY15" s="123" t="n"/>
       <c r="CP15" s="125" t="n"/>
@@ -8476,7 +8466,7 @@
       <c r="DG15" s="125" t="n"/>
       <c r="DH15" s="125" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="121" t="n"/>
       <c r="BY16" s="123" t="n"/>
       <c r="CP16" s="125" t="n"/>
@@ -8499,7 +8489,7 @@
       <c r="DG16" s="125" t="n"/>
       <c r="DH16" s="125" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="121" t="n"/>
       <c r="BY17" s="123" t="n"/>
       <c r="CP17" s="125" t="n"/>
@@ -8522,7 +8512,7 @@
       <c r="DG17" s="125" t="n"/>
       <c r="DH17" s="125" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="121" t="n"/>
       <c r="BY18" s="123" t="n"/>
       <c r="CP18" s="125" t="n"/>
@@ -8545,7 +8535,7 @@
       <c r="DG18" s="125" t="n"/>
       <c r="DH18" s="125" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="121" t="n"/>
       <c r="BY19" s="123" t="n"/>
       <c r="CP19" s="125" t="n"/>
@@ -8568,7 +8558,7 @@
       <c r="DG19" s="125" t="n"/>
       <c r="DH19" s="125" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="121" t="n"/>
       <c r="BY20" s="123" t="n"/>
       <c r="CP20" s="125" t="n"/>
@@ -8591,7 +8581,7 @@
       <c r="DG20" s="125" t="n"/>
       <c r="DH20" s="125" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="121" t="n"/>
       <c r="BY21" s="123" t="n"/>
       <c r="CP21" s="125" t="n"/>
@@ -8614,7 +8604,7 @@
       <c r="DG21" s="125" t="n"/>
       <c r="DH21" s="125" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="121" t="n"/>
       <c r="BY22" s="123" t="n"/>
       <c r="CP22" s="125" t="n"/>
@@ -8637,7 +8627,7 @@
       <c r="DG22" s="125" t="n"/>
       <c r="DH22" s="125" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="121" t="n"/>
       <c r="AL23" s="122" t="n"/>
       <c r="AM23" s="122" t="n"/>
@@ -8670,7 +8660,7 @@
       <c r="DG23" s="125" t="n"/>
       <c r="DH23" s="125" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="121" t="n"/>
       <c r="J24" s="122" t="n"/>
       <c r="K24" s="122" t="n"/>
@@ -8698,7 +8688,7 @@
       <c r="AU24" s="122" t="n"/>
       <c r="BY24" s="123" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="121" t="n"/>
       <c r="J25" s="122" t="n"/>
       <c r="K25" s="122" t="n"/>
@@ -8726,7 +8716,7 @@
       <c r="AU25" s="124" t="n"/>
       <c r="BY25" s="123" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="121" t="n"/>
       <c r="BC26" s="122" t="n"/>
       <c r="BD26" s="122" t="n"/>
@@ -8744,7 +8734,7 @@
       <c r="BP26" s="122" t="n"/>
       <c r="BY26" s="123" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="121" t="n"/>
       <c r="B27" s="125" t="n"/>
       <c r="C27" s="125" t="n"/>
@@ -8786,7 +8776,7 @@
       <c r="BP27" s="122" t="n"/>
       <c r="BY27" s="123" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="121" t="n"/>
       <c r="B28" s="125" t="n"/>
       <c r="C28" s="125" t="n"/>
@@ -8828,7 +8818,7 @@
       <c r="BP28" s="122" t="n"/>
       <c r="BY28" s="123" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="121" t="n"/>
       <c r="B29" s="125" t="n"/>
       <c r="C29" s="125" t="n"/>
@@ -8870,7 +8860,7 @@
       <c r="BP29" s="122" t="n"/>
       <c r="BY29" s="123" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="121" t="n"/>
       <c r="B30" s="125" t="n"/>
       <c r="C30" s="125" t="n"/>
@@ -8912,7 +8902,7 @@
       <c r="BP30" s="124" t="n"/>
       <c r="BY30" s="123" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="121" t="n"/>
       <c r="B31" s="125" t="n"/>
       <c r="C31" s="125" t="n"/>
@@ -8954,7 +8944,7 @@
       <c r="BP31" s="124" t="n"/>
       <c r="BY31" s="123" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="121" t="n"/>
       <c r="B32" s="125" t="n"/>
       <c r="C32" s="125" t="n"/>
@@ -8982,7 +8972,7 @@
       <c r="Y32" s="127" t="n"/>
       <c r="BY32" s="123" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="121" t="n"/>
       <c r="B33" s="125" t="n"/>
       <c r="C33" s="125" t="n"/>
@@ -9043,7 +9033,7 @@
       <c r="BS33" s="129" t="n"/>
       <c r="BY33" s="123" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="121" t="n"/>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
@@ -9104,7 +9094,7 @@
       <c r="BS34" s="129" t="n"/>
       <c r="BY34" s="123" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="121" t="n"/>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
@@ -9131,7 +9121,7 @@
       <c r="X35" s="125" t="n"/>
       <c r="BY35" s="123" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="121" t="n"/>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
@@ -9158,7 +9148,7 @@
       <c r="X36" s="125" t="n"/>
       <c r="BY36" s="123" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="131" t="n"/>
       <c r="B37" s="132" t="n"/>
       <c r="C37" s="132" t="n"/>
@@ -9237,7 +9227,7 @@
       <c r="BX37" s="132" t="n"/>
       <c r="BY37" s="133" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="219" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -9324,7 +9314,7 @@
       <c r="BX38" s="134" t="n"/>
       <c r="BY38" s="137" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="216" t="inlineStr">
         <is>
           <t>Date</t>
@@ -9383,7 +9373,7 @@
       <c r="BX39" s="138" t="n"/>
       <c r="BY39" s="139" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="216" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9444,7 +9434,7 @@
       <c r="BX40" s="138" t="n"/>
       <c r="BY40" s="139" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="216" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9505,7 +9495,7 @@
       <c r="BX41" s="138" t="n"/>
       <c r="BY41" s="139" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="216" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9564,7 +9554,7 @@
       <c r="BX42" s="142" t="n"/>
       <c r="BY42" s="139" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="216" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -9625,7 +9615,7 @@
       <c r="BX43" s="142" t="n"/>
       <c r="BY43" s="139" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="216" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -9686,7 +9676,7 @@
       <c r="BX44" s="138" t="n"/>
       <c r="BY44" s="139" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="222" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -9769,15 +9759,15 @@
       <c r="BX45" s="144" t="n"/>
       <c r="BY45" s="145" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="146" t="n"/>
       <c r="B51" s="125" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="146" t="n"/>
       <c r="B52" s="125" t="n"/>
     </row>
@@ -9802,8 +9792,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -9815,21 +9805,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="K38" sqref="K38:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="113" min="1" max="66"/>
-    <col width="0.109375" customWidth="1" style="113" min="67" max="67"/>
-    <col hidden="1" width="1.6640625" customWidth="1" style="113" min="68" max="75"/>
-    <col width="0.109375" customWidth="1" style="113" min="76" max="76"/>
-    <col width="1.6640625" customWidth="1" style="113" min="77" max="78"/>
-    <col width="1.6640625" customWidth="1" style="113" min="79" max="16384"/>
+    <col customWidth="1" max="66" min="1" style="113" width="1.6640625"/>
+    <col customWidth="1" max="67" min="67" style="113" width="0.109375"/>
+    <col customWidth="1" hidden="1" max="75" min="68" style="113" width="1.6640625"/>
+    <col customWidth="1" max="76" min="76" style="113" width="0.109375"/>
+    <col customWidth="1" max="78" min="77" style="113" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="79" style="113" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="218" t="n"/>
       <c r="B1" s="200" t="n"/>
       <c r="C1" s="200" t="n"/>
@@ -9908,7 +9898,7 @@
       <c r="BX1" s="200" t="n"/>
       <c r="BY1" s="200" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="114" t="n"/>
       <c r="B2" s="115" t="n"/>
       <c r="C2" s="115" t="n"/>
@@ -9987,7 +9977,7 @@
       <c r="BX2" s="115" t="n"/>
       <c r="BY2" s="116" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="117" t="n"/>
       <c r="B3" s="118" t="n"/>
       <c r="C3" s="119" t="n"/>
@@ -10066,7 +10056,7 @@
       <c r="BX3" s="119" t="n"/>
       <c r="BY3" s="120" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="117" t="n"/>
       <c r="B4" s="119" t="n"/>
       <c r="C4" s="119" t="n"/>
@@ -10145,7 +10135,7 @@
       <c r="BX4" s="119" t="n"/>
       <c r="BY4" s="120" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="121" t="n"/>
       <c r="AW5" s="122" t="n"/>
       <c r="AX5" s="122" t="n"/>
@@ -10163,7 +10153,7 @@
       <c r="BJ5" s="122" t="n"/>
       <c r="BY5" s="123" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="121" t="n"/>
       <c r="AW6" s="122" t="n"/>
       <c r="AX6" s="122" t="n"/>
@@ -10181,7 +10171,7 @@
       <c r="BJ6" s="122" t="n"/>
       <c r="BY6" s="123" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="121" t="n"/>
       <c r="V7" s="122" t="n"/>
       <c r="W7" s="122" t="n"/>
@@ -10215,7 +10205,7 @@
       <c r="BJ7" s="124" t="n"/>
       <c r="BY7" s="123" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="121" t="n"/>
       <c r="V8" s="122" t="n"/>
       <c r="W8" s="122" t="n"/>
@@ -10249,7 +10239,7 @@
       <c r="BJ8" s="124" t="n"/>
       <c r="BY8" s="123" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="121" t="n"/>
       <c r="V9" s="124" t="n"/>
       <c r="W9" s="124" t="n"/>
@@ -10269,7 +10259,7 @@
       <c r="AK9" s="124" t="n"/>
       <c r="BY9" s="123" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="121" t="n"/>
       <c r="V10" s="124" t="n"/>
       <c r="W10" s="124" t="n"/>
@@ -10289,7 +10279,7 @@
       <c r="AK10" s="124" t="n"/>
       <c r="BY10" s="123" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="121" t="n"/>
       <c r="V11" s="124" t="n"/>
       <c r="W11" s="124" t="n"/>
@@ -10309,19 +10299,19 @@
       <c r="AK11" s="124" t="n"/>
       <c r="BY11" s="123" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="121" t="n"/>
       <c r="BY12" s="123" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="121" t="n"/>
       <c r="BY13" s="123" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="121" t="n"/>
       <c r="BY14" s="123" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="121" t="n"/>
       <c r="BY15" s="123" t="n"/>
       <c r="CP15" s="125" t="n"/>
@@ -10344,7 +10334,7 @@
       <c r="DG15" s="125" t="n"/>
       <c r="DH15" s="125" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="121" t="n"/>
       <c r="BY16" s="123" t="n"/>
       <c r="CP16" s="125" t="n"/>
@@ -10367,7 +10357,7 @@
       <c r="DG16" s="125" t="n"/>
       <c r="DH16" s="125" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="121" t="n"/>
       <c r="BY17" s="123" t="n"/>
       <c r="CP17" s="125" t="n"/>
@@ -10390,7 +10380,7 @@
       <c r="DG17" s="125" t="n"/>
       <c r="DH17" s="125" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="121" t="n"/>
       <c r="BY18" s="123" t="n"/>
       <c r="CP18" s="125" t="n"/>
@@ -10413,7 +10403,7 @@
       <c r="DG18" s="125" t="n"/>
       <c r="DH18" s="125" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="121" t="n"/>
       <c r="BY19" s="123" t="n"/>
       <c r="CP19" s="125" t="n"/>
@@ -10436,7 +10426,7 @@
       <c r="DG19" s="125" t="n"/>
       <c r="DH19" s="125" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="121" t="n"/>
       <c r="BY20" s="123" t="n"/>
       <c r="CP20" s="125" t="n"/>
@@ -10459,7 +10449,7 @@
       <c r="DG20" s="125" t="n"/>
       <c r="DH20" s="125" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="121" t="n"/>
       <c r="BY21" s="123" t="n"/>
       <c r="CP21" s="125" t="n"/>
@@ -10482,7 +10472,7 @@
       <c r="DG21" s="125" t="n"/>
       <c r="DH21" s="125" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="121" t="n"/>
       <c r="BY22" s="123" t="n"/>
       <c r="CP22" s="125" t="n"/>
@@ -10505,7 +10495,7 @@
       <c r="DG22" s="125" t="n"/>
       <c r="DH22" s="125" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="121" t="n"/>
       <c r="AL23" s="122" t="n"/>
       <c r="AM23" s="122" t="n"/>
@@ -10538,7 +10528,7 @@
       <c r="DG23" s="125" t="n"/>
       <c r="DH23" s="125" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="121" t="n"/>
       <c r="J24" s="122" t="n"/>
       <c r="K24" s="122" t="n"/>
@@ -10566,7 +10556,7 @@
       <c r="AU24" s="122" t="n"/>
       <c r="BY24" s="123" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="121" t="n"/>
       <c r="J25" s="122" t="n"/>
       <c r="K25" s="122" t="n"/>
@@ -10594,7 +10584,7 @@
       <c r="AU25" s="124" t="n"/>
       <c r="BY25" s="123" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="121" t="n"/>
       <c r="BC26" s="122" t="n"/>
       <c r="BD26" s="122" t="n"/>
@@ -10612,7 +10602,7 @@
       <c r="BP26" s="122" t="n"/>
       <c r="BY26" s="123" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="121" t="n"/>
       <c r="B27" s="125" t="n"/>
       <c r="C27" s="125" t="n"/>
@@ -10654,7 +10644,7 @@
       <c r="BP27" s="122" t="n"/>
       <c r="BY27" s="123" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="121" t="n"/>
       <c r="B28" s="125" t="n"/>
       <c r="C28" s="125" t="n"/>
@@ -10696,7 +10686,7 @@
       <c r="BP28" s="122" t="n"/>
       <c r="BY28" s="123" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="121" t="n"/>
       <c r="B29" s="125" t="n"/>
       <c r="C29" s="125" t="n"/>
@@ -10738,7 +10728,7 @@
       <c r="BP29" s="122" t="n"/>
       <c r="BY29" s="123" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="121" t="n"/>
       <c r="B30" s="125" t="n"/>
       <c r="C30" s="125" t="n"/>
@@ -10780,7 +10770,7 @@
       <c r="BP30" s="124" t="n"/>
       <c r="BY30" s="123" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="121" t="n"/>
       <c r="B31" s="125" t="n"/>
       <c r="C31" s="125" t="n"/>
@@ -10822,7 +10812,7 @@
       <c r="BP31" s="124" t="n"/>
       <c r="BY31" s="123" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="121" t="n"/>
       <c r="B32" s="125" t="n"/>
       <c r="C32" s="125" t="n"/>
@@ -10850,7 +10840,7 @@
       <c r="Y32" s="127" t="n"/>
       <c r="BY32" s="123" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="121" t="n"/>
       <c r="B33" s="125" t="n"/>
       <c r="C33" s="125" t="n"/>
@@ -10911,7 +10901,7 @@
       <c r="BS33" s="129" t="n"/>
       <c r="BY33" s="123" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="121" t="n"/>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
@@ -10972,7 +10962,7 @@
       <c r="BS34" s="129" t="n"/>
       <c r="BY34" s="123" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="121" t="n"/>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
@@ -10999,7 +10989,7 @@
       <c r="X35" s="125" t="n"/>
       <c r="BY35" s="123" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="121" t="n"/>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
@@ -11026,7 +11016,7 @@
       <c r="X36" s="125" t="n"/>
       <c r="BY36" s="123" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="131" t="n"/>
       <c r="B37" s="132" t="n"/>
       <c r="C37" s="132" t="n"/>
@@ -11105,7 +11095,7 @@
       <c r="BX37" s="132" t="n"/>
       <c r="BY37" s="133" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="219" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -11192,7 +11182,7 @@
       <c r="BX38" s="134" t="n"/>
       <c r="BY38" s="137" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="216" t="inlineStr">
         <is>
           <t>Date</t>
@@ -11251,7 +11241,7 @@
       <c r="BX39" s="138" t="n"/>
       <c r="BY39" s="139" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="216" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -11312,7 +11302,7 @@
       <c r="BX40" s="138" t="n"/>
       <c r="BY40" s="139" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="216" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -11373,7 +11363,7 @@
       <c r="BX41" s="138" t="n"/>
       <c r="BY41" s="139" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="216" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -11432,7 +11422,7 @@
       <c r="BX42" s="142" t="n"/>
       <c r="BY42" s="139" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="216" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -11493,7 +11483,7 @@
       <c r="BX43" s="142" t="n"/>
       <c r="BY43" s="139" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="216" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -11554,7 +11544,7 @@
       <c r="BX44" s="138" t="n"/>
       <c r="BY44" s="139" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="222" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -11637,15 +11627,15 @@
       <c r="BX45" s="144" t="n"/>
       <c r="BY45" s="145" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="146" t="n"/>
       <c r="B51" s="125" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="146" t="n"/>
       <c r="B52" s="125" t="n"/>
     </row>
@@ -11670,8 +11660,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -11683,20 +11673,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CS38" sqref="CS38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="113" min="1" max="66"/>
-    <col width="0.109375" customWidth="1" style="113" min="67" max="67"/>
-    <col hidden="1" width="1.6640625" customWidth="1" style="113" min="68" max="76"/>
-    <col width="1.6640625" customWidth="1" style="113" min="77" max="78"/>
-    <col width="1.6640625" customWidth="1" style="113" min="79" max="16384"/>
+    <col customWidth="1" max="66" min="1" style="113" width="1.6640625"/>
+    <col customWidth="1" max="67" min="67" style="113" width="0.109375"/>
+    <col customWidth="1" hidden="1" max="76" min="68" style="113" width="1.6640625"/>
+    <col customWidth="1" max="78" min="77" style="113" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="79" style="113" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="218" t="n"/>
       <c r="B1" s="200" t="n"/>
       <c r="C1" s="200" t="n"/>
@@ -11775,7 +11765,7 @@
       <c r="BX1" s="200" t="n"/>
       <c r="BY1" s="200" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="114" t="n"/>
       <c r="B2" s="115" t="n"/>
       <c r="C2" s="115" t="n"/>
@@ -11854,7 +11844,7 @@
       <c r="BX2" s="115" t="n"/>
       <c r="BY2" s="116" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="117" t="n"/>
       <c r="B3" s="118" t="n"/>
       <c r="C3" s="119" t="n"/>
@@ -11933,7 +11923,7 @@
       <c r="BX3" s="119" t="n"/>
       <c r="BY3" s="120" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="117" t="n"/>
       <c r="B4" s="119" t="n"/>
       <c r="C4" s="119" t="n"/>
@@ -12012,7 +12002,7 @@
       <c r="BX4" s="119" t="n"/>
       <c r="BY4" s="120" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="121" t="n"/>
       <c r="AW5" s="122" t="n"/>
       <c r="AX5" s="122" t="n"/>
@@ -12030,7 +12020,7 @@
       <c r="BJ5" s="122" t="n"/>
       <c r="BY5" s="123" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="121" t="n"/>
       <c r="AW6" s="122" t="n"/>
       <c r="AX6" s="122" t="n"/>
@@ -12048,7 +12038,7 @@
       <c r="BJ6" s="122" t="n"/>
       <c r="BY6" s="123" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="121" t="n"/>
       <c r="V7" s="122" t="n"/>
       <c r="W7" s="122" t="n"/>
@@ -12082,7 +12072,7 @@
       <c r="BJ7" s="124" t="n"/>
       <c r="BY7" s="123" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="121" t="n"/>
       <c r="V8" s="122" t="n"/>
       <c r="W8" s="122" t="n"/>
@@ -12116,7 +12106,7 @@
       <c r="BJ8" s="124" t="n"/>
       <c r="BY8" s="123" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="121" t="n"/>
       <c r="V9" s="124" t="n"/>
       <c r="W9" s="124" t="n"/>
@@ -12136,7 +12126,7 @@
       <c r="AK9" s="124" t="n"/>
       <c r="BY9" s="123" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="121" t="n"/>
       <c r="V10" s="124" t="n"/>
       <c r="W10" s="124" t="n"/>
@@ -12156,7 +12146,7 @@
       <c r="AK10" s="124" t="n"/>
       <c r="BY10" s="123" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="121" t="n"/>
       <c r="V11" s="124" t="n"/>
       <c r="W11" s="124" t="n"/>
@@ -12176,19 +12166,19 @@
       <c r="AK11" s="124" t="n"/>
       <c r="BY11" s="123" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="121" t="n"/>
       <c r="BY12" s="123" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="121" t="n"/>
       <c r="BY13" s="123" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="121" t="n"/>
       <c r="BY14" s="123" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="121" t="n"/>
       <c r="BY15" s="123" t="n"/>
       <c r="CP15" s="125" t="n"/>
@@ -12211,7 +12201,7 @@
       <c r="DG15" s="125" t="n"/>
       <c r="DH15" s="125" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="121" t="n"/>
       <c r="BY16" s="123" t="n"/>
       <c r="CP16" s="125" t="n"/>
@@ -12234,7 +12224,7 @@
       <c r="DG16" s="125" t="n"/>
       <c r="DH16" s="125" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="121" t="n"/>
       <c r="BY17" s="123" t="n"/>
       <c r="CP17" s="125" t="n"/>
@@ -12257,7 +12247,7 @@
       <c r="DG17" s="125" t="n"/>
       <c r="DH17" s="125" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="121" t="n"/>
       <c r="BY18" s="123" t="n"/>
       <c r="CP18" s="125" t="n"/>
@@ -12280,7 +12270,7 @@
       <c r="DG18" s="125" t="n"/>
       <c r="DH18" s="125" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="121" t="n"/>
       <c r="BY19" s="123" t="n"/>
       <c r="CP19" s="125" t="n"/>
@@ -12303,7 +12293,7 @@
       <c r="DG19" s="125" t="n"/>
       <c r="DH19" s="125" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="121" t="n"/>
       <c r="BY20" s="123" t="n"/>
       <c r="CP20" s="125" t="n"/>
@@ -12326,7 +12316,7 @@
       <c r="DG20" s="125" t="n"/>
       <c r="DH20" s="125" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="121" t="n"/>
       <c r="BY21" s="123" t="n"/>
       <c r="CP21" s="125" t="n"/>
@@ -12349,7 +12339,7 @@
       <c r="DG21" s="125" t="n"/>
       <c r="DH21" s="125" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="121" t="n"/>
       <c r="BY22" s="123" t="n"/>
       <c r="CP22" s="125" t="n"/>
@@ -12372,7 +12362,7 @@
       <c r="DG22" s="125" t="n"/>
       <c r="DH22" s="125" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="121" t="n"/>
       <c r="AL23" s="122" t="n"/>
       <c r="AM23" s="122" t="n"/>
@@ -12405,7 +12395,7 @@
       <c r="DG23" s="125" t="n"/>
       <c r="DH23" s="125" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="121" t="n"/>
       <c r="J24" s="122" t="n"/>
       <c r="K24" s="122" t="n"/>
@@ -12433,7 +12423,7 @@
       <c r="AU24" s="122" t="n"/>
       <c r="BY24" s="123" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="121" t="n"/>
       <c r="J25" s="122" t="n"/>
       <c r="K25" s="122" t="n"/>
@@ -12461,7 +12451,7 @@
       <c r="AU25" s="124" t="n"/>
       <c r="BY25" s="123" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="121" t="n"/>
       <c r="BC26" s="122" t="n"/>
       <c r="BD26" s="122" t="n"/>
@@ -12479,7 +12469,7 @@
       <c r="BP26" s="122" t="n"/>
       <c r="BY26" s="123" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="121" t="n"/>
       <c r="B27" s="125" t="n"/>
       <c r="C27" s="125" t="n"/>
@@ -12521,7 +12511,7 @@
       <c r="BP27" s="122" t="n"/>
       <c r="BY27" s="123" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="121" t="n"/>
       <c r="B28" s="125" t="n"/>
       <c r="C28" s="125" t="n"/>
@@ -12563,7 +12553,7 @@
       <c r="BP28" s="122" t="n"/>
       <c r="BY28" s="123" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="121" t="n"/>
       <c r="B29" s="125" t="n"/>
       <c r="C29" s="125" t="n"/>
@@ -12605,7 +12595,7 @@
       <c r="BP29" s="122" t="n"/>
       <c r="BY29" s="123" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="121" t="n"/>
       <c r="B30" s="125" t="n"/>
       <c r="C30" s="125" t="n"/>
@@ -12647,7 +12637,7 @@
       <c r="BP30" s="124" t="n"/>
       <c r="BY30" s="123" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="121" t="n"/>
       <c r="B31" s="125" t="n"/>
       <c r="C31" s="125" t="n"/>
@@ -12689,7 +12679,7 @@
       <c r="BP31" s="124" t="n"/>
       <c r="BY31" s="123" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="121" t="n"/>
       <c r="B32" s="125" t="n"/>
       <c r="C32" s="125" t="n"/>
@@ -12717,7 +12707,7 @@
       <c r="Y32" s="127" t="n"/>
       <c r="BY32" s="123" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="121" t="n"/>
       <c r="B33" s="125" t="n"/>
       <c r="C33" s="125" t="n"/>
@@ -12778,7 +12768,7 @@
       <c r="BS33" s="129" t="n"/>
       <c r="BY33" s="123" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="121" t="n"/>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
@@ -12839,7 +12829,7 @@
       <c r="BS34" s="129" t="n"/>
       <c r="BY34" s="123" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="121" t="n"/>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
@@ -12866,7 +12856,7 @@
       <c r="X35" s="125" t="n"/>
       <c r="BY35" s="123" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="121" t="n"/>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
@@ -12893,7 +12883,7 @@
       <c r="X36" s="125" t="n"/>
       <c r="BY36" s="123" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="131" t="n"/>
       <c r="B37" s="132" t="n"/>
       <c r="C37" s="132" t="n"/>
@@ -12972,7 +12962,7 @@
       <c r="BX37" s="132" t="n"/>
       <c r="BY37" s="133" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="219" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -13059,7 +13049,7 @@
       <c r="BX38" s="134" t="n"/>
       <c r="BY38" s="137" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="216" t="inlineStr">
         <is>
           <t>Date</t>
@@ -13118,7 +13108,7 @@
       <c r="BX39" s="138" t="n"/>
       <c r="BY39" s="139" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="216" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -13179,7 +13169,7 @@
       <c r="BX40" s="138" t="n"/>
       <c r="BY40" s="139" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="216" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -13240,7 +13230,7 @@
       <c r="BX41" s="138" t="n"/>
       <c r="BY41" s="139" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="216" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -13299,7 +13289,7 @@
       <c r="BX42" s="142" t="n"/>
       <c r="BY42" s="139" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="216" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -13360,7 +13350,7 @@
       <c r="BX43" s="142" t="n"/>
       <c r="BY43" s="139" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="216" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -13421,7 +13411,7 @@
       <c r="BX44" s="138" t="n"/>
       <c r="BY44" s="139" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="222" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -13504,15 +13494,15 @@
       <c r="BX45" s="144" t="n"/>
       <c r="BY45" s="145" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="146" t="n"/>
       <c r="B51" s="125" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="146" t="n"/>
       <c r="B52" s="125" t="n"/>
     </row>
@@ -13537,8 +13527,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -13550,21 +13540,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CK14" sqref="CK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="113" min="1" max="66"/>
-    <col width="0.109375" customWidth="1" style="113" min="67" max="67"/>
-    <col hidden="1" width="1.6640625" customWidth="1" style="113" min="68" max="75"/>
-    <col width="0.109375" customWidth="1" style="113" min="76" max="76"/>
-    <col width="1.6640625" customWidth="1" style="113" min="77" max="78"/>
-    <col width="1.6640625" customWidth="1" style="113" min="79" max="16384"/>
+    <col customWidth="1" max="66" min="1" style="113" width="1.6640625"/>
+    <col customWidth="1" max="67" min="67" style="113" width="0.109375"/>
+    <col customWidth="1" hidden="1" max="75" min="68" style="113" width="1.6640625"/>
+    <col customWidth="1" max="76" min="76" style="113" width="0.109375"/>
+    <col customWidth="1" max="78" min="77" style="113" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="79" style="113" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="218" t="n"/>
       <c r="B1" s="200" t="n"/>
       <c r="C1" s="200" t="n"/>
@@ -13643,7 +13633,7 @@
       <c r="BX1" s="200" t="n"/>
       <c r="BY1" s="200" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="114" t="n"/>
       <c r="B2" s="115" t="n"/>
       <c r="C2" s="115" t="n"/>
@@ -13722,7 +13712,7 @@
       <c r="BX2" s="115" t="n"/>
       <c r="BY2" s="116" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="117" t="n"/>
       <c r="B3" s="118" t="n"/>
       <c r="C3" s="119" t="n"/>
@@ -13801,7 +13791,7 @@
       <c r="BX3" s="119" t="n"/>
       <c r="BY3" s="120" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="117" t="n"/>
       <c r="B4" s="119" t="n"/>
       <c r="C4" s="119" t="n"/>
@@ -13880,7 +13870,7 @@
       <c r="BX4" s="119" t="n"/>
       <c r="BY4" s="120" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="121" t="n"/>
       <c r="AW5" s="122" t="n"/>
       <c r="AX5" s="122" t="n"/>
@@ -13898,7 +13888,7 @@
       <c r="BJ5" s="122" t="n"/>
       <c r="BY5" s="123" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="121" t="n"/>
       <c r="AW6" s="122" t="n"/>
       <c r="AX6" s="122" t="n"/>
@@ -13916,7 +13906,7 @@
       <c r="BJ6" s="122" t="n"/>
       <c r="BY6" s="123" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="121" t="n"/>
       <c r="V7" s="122" t="n"/>
       <c r="W7" s="122" t="n"/>
@@ -13950,7 +13940,7 @@
       <c r="BJ7" s="124" t="n"/>
       <c r="BY7" s="123" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="121" t="n"/>
       <c r="V8" s="122" t="n"/>
       <c r="W8" s="122" t="n"/>
@@ -13984,7 +13974,7 @@
       <c r="BJ8" s="124" t="n"/>
       <c r="BY8" s="123" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="121" t="n"/>
       <c r="V9" s="124" t="n"/>
       <c r="W9" s="124" t="n"/>
@@ -14004,7 +13994,7 @@
       <c r="AK9" s="124" t="n"/>
       <c r="BY9" s="123" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="121" t="n"/>
       <c r="V10" s="124" t="n"/>
       <c r="W10" s="124" t="n"/>
@@ -14024,7 +14014,7 @@
       <c r="AK10" s="124" t="n"/>
       <c r="BY10" s="123" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="121" t="n"/>
       <c r="V11" s="124" t="n"/>
       <c r="W11" s="124" t="n"/>
@@ -14044,19 +14034,19 @@
       <c r="AK11" s="124" t="n"/>
       <c r="BY11" s="123" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="121" t="n"/>
       <c r="BY12" s="123" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="121" t="n"/>
       <c r="BY13" s="123" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="121" t="n"/>
       <c r="BY14" s="123" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="121" t="n"/>
       <c r="BY15" s="123" t="n"/>
       <c r="CP15" s="125" t="n"/>
@@ -14079,7 +14069,7 @@
       <c r="DG15" s="125" t="n"/>
       <c r="DH15" s="125" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="121" t="n"/>
       <c r="BY16" s="123" t="n"/>
       <c r="CP16" s="125" t="n"/>
@@ -14102,7 +14092,7 @@
       <c r="DG16" s="125" t="n"/>
       <c r="DH16" s="125" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="121" t="n"/>
       <c r="BY17" s="123" t="n"/>
       <c r="CP17" s="125" t="n"/>
@@ -14125,7 +14115,7 @@
       <c r="DG17" s="125" t="n"/>
       <c r="DH17" s="125" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="121" t="n"/>
       <c r="BY18" s="123" t="n"/>
       <c r="CP18" s="125" t="n"/>
@@ -14148,7 +14138,7 @@
       <c r="DG18" s="125" t="n"/>
       <c r="DH18" s="125" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="121" t="n"/>
       <c r="BY19" s="123" t="n"/>
       <c r="CP19" s="125" t="n"/>
@@ -14171,7 +14161,7 @@
       <c r="DG19" s="125" t="n"/>
       <c r="DH19" s="125" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="121" t="n"/>
       <c r="BY20" s="123" t="n"/>
       <c r="CP20" s="125" t="n"/>
@@ -14194,7 +14184,7 @@
       <c r="DG20" s="125" t="n"/>
       <c r="DH20" s="125" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="121" t="n"/>
       <c r="BY21" s="123" t="n"/>
       <c r="CP21" s="125" t="n"/>
@@ -14217,7 +14207,7 @@
       <c r="DG21" s="125" t="n"/>
       <c r="DH21" s="125" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="121" t="n"/>
       <c r="BY22" s="123" t="n"/>
       <c r="CP22" s="125" t="n"/>
@@ -14240,7 +14230,7 @@
       <c r="DG22" s="125" t="n"/>
       <c r="DH22" s="125" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="121" t="n"/>
       <c r="AL23" s="122" t="n"/>
       <c r="AM23" s="122" t="n"/>
@@ -14273,7 +14263,7 @@
       <c r="DG23" s="125" t="n"/>
       <c r="DH23" s="125" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="121" t="n"/>
       <c r="J24" s="122" t="n"/>
       <c r="K24" s="122" t="n"/>
@@ -14301,7 +14291,7 @@
       <c r="AU24" s="122" t="n"/>
       <c r="BY24" s="123" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="121" t="n"/>
       <c r="J25" s="122" t="n"/>
       <c r="K25" s="122" t="n"/>
@@ -14329,7 +14319,7 @@
       <c r="AU25" s="124" t="n"/>
       <c r="BY25" s="123" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="121" t="n"/>
       <c r="BC26" s="122" t="n"/>
       <c r="BD26" s="122" t="n"/>
@@ -14347,7 +14337,7 @@
       <c r="BP26" s="122" t="n"/>
       <c r="BY26" s="123" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="121" t="n"/>
       <c r="B27" s="125" t="n"/>
       <c r="C27" s="125" t="n"/>
@@ -14389,7 +14379,7 @@
       <c r="BP27" s="122" t="n"/>
       <c r="BY27" s="123" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="121" t="n"/>
       <c r="B28" s="125" t="n"/>
       <c r="C28" s="125" t="n"/>
@@ -14431,7 +14421,7 @@
       <c r="BP28" s="122" t="n"/>
       <c r="BY28" s="123" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="121" t="n"/>
       <c r="B29" s="125" t="n"/>
       <c r="C29" s="125" t="n"/>
@@ -14473,7 +14463,7 @@
       <c r="BP29" s="122" t="n"/>
       <c r="BY29" s="123" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="121" t="n"/>
       <c r="B30" s="125" t="n"/>
       <c r="C30" s="125" t="n"/>
@@ -14515,7 +14505,7 @@
       <c r="BP30" s="124" t="n"/>
       <c r="BY30" s="123" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="121" t="n"/>
       <c r="B31" s="125" t="n"/>
       <c r="C31" s="125" t="n"/>
@@ -14557,7 +14547,7 @@
       <c r="BP31" s="124" t="n"/>
       <c r="BY31" s="123" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="121" t="n"/>
       <c r="B32" s="125" t="n"/>
       <c r="C32" s="125" t="n"/>
@@ -14585,7 +14575,7 @@
       <c r="Y32" s="127" t="n"/>
       <c r="BY32" s="123" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="121" t="n"/>
       <c r="B33" s="125" t="n"/>
       <c r="C33" s="125" t="n"/>
@@ -14646,7 +14636,7 @@
       <c r="BS33" s="129" t="n"/>
       <c r="BY33" s="123" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="121" t="n"/>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
@@ -14707,7 +14697,7 @@
       <c r="BS34" s="129" t="n"/>
       <c r="BY34" s="123" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="121" t="n"/>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
@@ -14734,7 +14724,7 @@
       <c r="X35" s="125" t="n"/>
       <c r="BY35" s="123" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="121" t="n"/>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
@@ -14761,7 +14751,7 @@
       <c r="X36" s="125" t="n"/>
       <c r="BY36" s="123" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="131" t="n"/>
       <c r="B37" s="132" t="n"/>
       <c r="C37" s="132" t="n"/>
@@ -14840,7 +14830,7 @@
       <c r="BX37" s="132" t="n"/>
       <c r="BY37" s="133" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="219" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -14927,7 +14917,7 @@
       <c r="BX38" s="134" t="n"/>
       <c r="BY38" s="137" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="216" t="inlineStr">
         <is>
           <t>Date</t>
@@ -14986,7 +14976,7 @@
       <c r="BX39" s="138" t="n"/>
       <c r="BY39" s="139" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="216" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -15047,7 +15037,7 @@
       <c r="BX40" s="138" t="n"/>
       <c r="BY40" s="139" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="216" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -15108,7 +15098,7 @@
       <c r="BX41" s="138" t="n"/>
       <c r="BY41" s="139" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="216" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -15167,7 +15157,7 @@
       <c r="BX42" s="142" t="n"/>
       <c r="BY42" s="139" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="216" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -15228,7 +15218,7 @@
       <c r="BX43" s="142" t="n"/>
       <c r="BY43" s="139" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="216" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -15289,7 +15279,7 @@
       <c r="BX44" s="138" t="n"/>
       <c r="BY44" s="139" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="222" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -15372,15 +15362,15 @@
       <c r="BX45" s="144" t="n"/>
       <c r="BY45" s="145" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="146" t="n"/>
       <c r="B51" s="125" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="146" t="n"/>
       <c r="B52" s="125" t="n"/>
     </row>
@@ -15405,7 +15395,7 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>